--- a/JEE with Mulesoft - TOC.xlsx
+++ b/JEE with Mulesoft - TOC.xlsx
@@ -4,18 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
     <sheet name="JPA with Hibernate" sheetId="10" r:id="rId2"/>
+    <sheet name="Servlets and JSPs" sheetId="23" r:id="rId3"/>
+    <sheet name="Spring Core" sheetId="24" r:id="rId4"/>
+    <sheet name="Spring MVC" sheetId="25" r:id="rId5"/>
+    <sheet name="Spring REST" sheetId="26" r:id="rId6"/>
+    <sheet name="Spring  Data JPA" sheetId="27" r:id="rId7"/>
+    <sheet name="Spring Data REST" sheetId="28" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="414">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -29,25 +35,58 @@
     <t>Duration (hours)</t>
   </si>
   <si>
-    <t>JPA with Hibernate</t>
+    <t>JPA with Hibernate 3.0</t>
+  </si>
+  <si>
+    <t>Servlets and JSPs</t>
+  </si>
+  <si>
+    <t>Spring 5.0 (Core, MVC, REST, Data JPA, Data REST)</t>
+  </si>
+  <si>
+    <t>Improvement Test</t>
+  </si>
+  <si>
+    <t>Micro Services Advanced using Spring Boot and Rest Template</t>
   </si>
   <si>
     <t>Total Training Duration</t>
   </si>
   <si>
-    <t>2 days</t>
-  </si>
-  <si>
-    <t>16 hours</t>
+    <t>15 days</t>
+  </si>
+  <si>
+    <t>120 hours</t>
   </si>
   <si>
     <t>Notes:</t>
   </si>
   <si>
+    <t>Hands On Assignments</t>
+  </si>
+  <si>
     <t>The Hands On Assignments are take-home.</t>
   </si>
   <si>
     <t>Assignments will be uploaded to the GIT Hub repository.</t>
+  </si>
+  <si>
+    <t>Assignments are mandatory.</t>
+  </si>
+  <si>
+    <t>Hands On Demos</t>
+  </si>
+  <si>
+    <t>The Hands On Demos need to be coded manually on the participant's system.</t>
+  </si>
+  <si>
+    <t>Demos will be uploaded to the GIT Hub repository in Word format.</t>
+  </si>
+  <si>
+    <t>Coding all Demos is mandatory.</t>
+  </si>
+  <si>
+    <t>Participants are encouraged to code along with the demos during the training sessions. Recordings are available for refererence to correct any errors or gaps encountered in coding.</t>
   </si>
   <si>
     <t>Topics</t>
@@ -81,7 +120,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Explore object-relational mapping (ORM) and its problems.</t>
+      <t xml:space="preserve">Explore object-relational mapping (ORM) and its problems.         </t>
     </r>
     <r>
       <rPr>
@@ -92,7 +131,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                           </t>
+      <t xml:space="preserve">                  </t>
     </r>
   </si>
   <si>
@@ -148,6 +187,12 @@
   </si>
   <si>
     <t xml:space="preserve">9. Demo: Embeddable Primary Key and ID Class </t>
+  </si>
+  <si>
+    <t>JPA Using Hibernate And  PostgreSQL</t>
+  </si>
+  <si>
+    <t>jpa-hibernate-exercises.zip</t>
   </si>
   <si>
     <t>Day 2</t>
@@ -252,19 +297,1097 @@
 </t>
   </si>
   <si>
-    <t>Hands On Assignments</t>
-  </si>
-  <si>
-    <t>JPA Using Hibernate And  PostgreSQL</t>
-  </si>
-  <si>
-    <t>jpa-hibernate-exercises.zip</t>
-  </si>
-  <si>
     <t>Total # of Days for JPA with Hibernate</t>
   </si>
   <si>
     <t>Total # of Hours for JPA with Hibernate</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Servlets and JSPs    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                You need to develop Java web applications but are not sure what to use as a development platform.                                                   Use Tomcat, the leading Java web application platform.                                                       Gain foundational knowledge of how to develop Java web applications for Tomcat.                  First, you will learn about HTTP 1.1 and how it is processed by Tomcat.                        Next, you will learn about the Servlet API and how to develop custom servlets, JSP, Filters, and Listeners.                Finally, you will explore how to configure, package, and deploy web applications in WAR files.                                      When you are finished with this course, you will have the skills and knowledge of Servlets and JSPs needed to develop web applications in Java</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Installing Tomcat and the Demos</t>
+  </si>
+  <si>
+    <t>1. Installation and Initial Configuration of Tomcat</t>
+  </si>
+  <si>
+    <t>2. Install Tomcat on Windows 10</t>
+  </si>
+  <si>
+    <t>3. Install Tomcat on Linux</t>
+  </si>
+  <si>
+    <t>4. Install Tomcat on macOS</t>
+  </si>
+  <si>
+    <t>5. Loading the Examples</t>
+  </si>
+  <si>
+    <t>3. HTTP and the Tomcat  Architecture</t>
+  </si>
+  <si>
+    <t>1. HTTP 1.1</t>
+  </si>
+  <si>
+    <t>2. Tomcat Architecture</t>
+  </si>
+  <si>
+    <t>4. Developing Servlets</t>
+  </si>
+  <si>
+    <t>1. The Servlet Class</t>
+  </si>
+  <si>
+    <t>2. Developing a Simple Servlet</t>
+  </si>
+  <si>
+    <t>3. Working with HTTP Parameters</t>
+  </si>
+  <si>
+    <t>4. Working with HTTP Headers</t>
+  </si>
+  <si>
+    <t>5. Working with the Servlet Context</t>
+  </si>
+  <si>
+    <t>6. Working with the HttpSession</t>
+  </si>
+  <si>
+    <t>5. Developing JSPs and JSTL</t>
+  </si>
+  <si>
+    <t>1. JSP Expressions</t>
+  </si>
+  <si>
+    <t>2. JSP Scriptlets, Declarations, and JavaBeans</t>
+  </si>
+  <si>
+    <t>3. JSP Standard Tag Libraries</t>
+  </si>
+  <si>
+    <t>6. Developing Filters and Listeners</t>
+  </si>
+  <si>
+    <t>1. Servlet Filters</t>
+  </si>
+  <si>
+    <t>2. Application Event Listeners</t>
+  </si>
+  <si>
+    <t>7. Deploying Web Applications</t>
+  </si>
+  <si>
+    <t>1. The WAR File</t>
+  </si>
+  <si>
+    <t>2. Package and Deploy a WAR</t>
+  </si>
+  <si>
+    <t>4. Deploying to Tomcat</t>
+  </si>
+  <si>
+    <t>5. Deploying to Jetty</t>
+  </si>
+  <si>
+    <t>8. Configuring Web Applications</t>
+  </si>
+  <si>
+    <t>1. Servlet and JSP Mapping</t>
+  </si>
+  <si>
+    <t>2. Context Parameter</t>
+  </si>
+  <si>
+    <t>3. Filters</t>
+  </si>
+  <si>
+    <t>Servlets and  JSPs</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - JSPs</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - Servlets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total # of Days for Servlets and JSPs  </t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Spring Framework:                           Spring Fundamentals</t>
+  </si>
+  <si>
+    <t>2. What Is Spring?</t>
+  </si>
+  <si>
+    <t>1. Introduction</t>
+  </si>
+  <si>
+    <t>3. Update</t>
+  </si>
+  <si>
+    <t>4. The Problem</t>
+  </si>
+  <si>
+    <t>5. Business Focus</t>
+  </si>
+  <si>
+    <t>6. The Solution</t>
+  </si>
+  <si>
+    <t>7. Business Focus Revisited</t>
+  </si>
+  <si>
+    <t>8. How It Works</t>
+  </si>
+  <si>
+    <t>9. Demo: What We Are Building</t>
+  </si>
+  <si>
+    <t>10. Summary</t>
+  </si>
+  <si>
+    <t>3. Architecture and Project Setup</t>
+  </si>
+  <si>
+    <t>1. Sample App Intro</t>
+  </si>
+  <si>
+    <t>2. Architecture</t>
+  </si>
+  <si>
+    <t>3. Prerequisites</t>
+  </si>
+  <si>
+    <t>4. Sample App Setup</t>
+  </si>
+  <si>
+    <t>5. Demo: Sample App Add Model</t>
+  </si>
+  <si>
+    <t>6. Demo: Sample App Add Repository</t>
+  </si>
+  <si>
+    <t>7. Demo: Sample App Add Service</t>
+  </si>
+  <si>
+    <t>8. Demo: Sample App Run Application</t>
+  </si>
+  <si>
+    <t>9. Configuration</t>
+  </si>
+  <si>
+    <t>10. Demo: Pain Points Walkthrough</t>
+  </si>
+  <si>
+    <t>11. Spring Download</t>
+  </si>
+  <si>
+    <t>12. Demo: Spring Download Maven</t>
+  </si>
+  <si>
+    <t>13. Summary</t>
+  </si>
+  <si>
+    <t>4. Spring Configuration Using Java</t>
+  </si>
+  <si>
+    <t>1. Java Configuration Introduction</t>
+  </si>
+  <si>
+    <t>2. Demo: Copy Project</t>
+  </si>
+  <si>
+    <t>3. Demo: App Config</t>
+  </si>
+  <si>
+    <t>4. Demo: @Configuration</t>
+  </si>
+  <si>
+    <t>5. Setter Injection</t>
+  </si>
+  <si>
+    <t>6. Demo: Setter Injection</t>
+  </si>
+  <si>
+    <t>7. Constructor Injection</t>
+  </si>
+  <si>
+    <t>5. Spring Scopes and Autowiring</t>
+  </si>
+  <si>
+    <t>1. Bean Scope Introduction</t>
+  </si>
+  <si>
+    <t>2. Scopes</t>
+  </si>
+  <si>
+    <t>3. Singleton Java Config</t>
+  </si>
+  <si>
+    <t>4. Prototype Java Config</t>
+  </si>
+  <si>
+    <t>5. Web Scopes</t>
+  </si>
+  <si>
+    <t>6. Autowired</t>
+  </si>
+  <si>
+    <t>7. Demo: Autowired</t>
+  </si>
+  <si>
+    <t>8. Stereotype Annotations</t>
+  </si>
+  <si>
+    <t>9. Summary</t>
+  </si>
+  <si>
+    <t>6. Spring Configuration Using XML</t>
+  </si>
+  <si>
+    <t>1. XML Config Introduction</t>
+  </si>
+  <si>
+    <t>3. applicationContext.xml</t>
+  </si>
+  <si>
+    <t>4. Bean Definition</t>
+  </si>
+  <si>
+    <t>5. Demo: Add Bean</t>
+  </si>
+  <si>
+    <t>8. Autowiring</t>
+  </si>
+  <si>
+    <t>9. Demo: Autowired</t>
+  </si>
+  <si>
+    <t>7. Advanced Bean Configuration</t>
+  </si>
+  <si>
+    <t>1. Advanced Bean Configuration Introduction</t>
+  </si>
+  <si>
+    <t>2. Bean Lifecycle</t>
+  </si>
+  <si>
+    <t>3. FactoryBean</t>
+  </si>
+  <si>
+    <t>5. SpEL</t>
+  </si>
+  <si>
+    <t>6. Proxies</t>
+  </si>
+  <si>
+    <t>7. Bean Profiles</t>
+  </si>
+  <si>
+    <t>9. Configuring Collections</t>
+  </si>
+  <si>
+    <t>10. Using c- and p- namespaces in Spring</t>
+  </si>
+  <si>
+    <t>8. Summary</t>
+  </si>
+  <si>
+    <t>Spring Framework : Spring Fundamentals</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1 -  Spring Basics</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 -  Spring Basics</t>
+  </si>
+  <si>
+    <t>Hands On Lab 3 -Spring Inversion Of Control</t>
+  </si>
+  <si>
+    <t>Hands On Lab 4 -Spring Inversion Of Control</t>
+  </si>
+  <si>
+    <t>Total # of Days for Spring Core</t>
+  </si>
+  <si>
+    <t>Total # of Hours for Spring  Core</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Spring MVC is the a popular web framework for Java development.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                               Spring MVC Project setup with Spring Initializr                       Architecture in Spring MVC Controllers and Navigation                    </t>
+    </r>
+  </si>
+  <si>
+    <t>2. What Is Spring MVC?</t>
+  </si>
+  <si>
+    <t>2. Course Update</t>
+  </si>
+  <si>
+    <t>3. Request / Response Lifecycle</t>
+  </si>
+  <si>
+    <t>4. Vocabulary</t>
+  </si>
+  <si>
+    <t>5.What Are We Going to Build?</t>
+  </si>
+  <si>
+    <t>6. Summary</t>
+  </si>
+  <si>
+    <t>3. Creating Your First Spring MVC Application</t>
+  </si>
+  <si>
+    <t>2. Getting Spring</t>
+  </si>
+  <si>
+    <t>3. Demo: Project Setup</t>
+  </si>
+  <si>
+    <t>4. Demo: Tomcat Configuration</t>
+  </si>
+  <si>
+    <t>5. Spring MVC Configuration</t>
+  </si>
+  <si>
+    <t>6. Demo: Greeting Controller</t>
+  </si>
+  <si>
+    <t>7. Summary</t>
+  </si>
+  <si>
+    <t>4. Understanding the Structure of Spring MVC Applications</t>
+  </si>
+  <si>
+    <t>2. Model-View-Controller</t>
+  </si>
+  <si>
+    <t>3. Application Layers</t>
+  </si>
+  <si>
+    <t>4. Spring Components</t>
+  </si>
+  <si>
+    <t>5. Summary</t>
+  </si>
+  <si>
+    <t>5. Creating Controllers in Spring MVC</t>
+  </si>
+  <si>
+    <t>2. What Is a Controller?</t>
+  </si>
+  <si>
+    <t>3. @Controller</t>
+  </si>
+  <si>
+    <t>4. Demo: Registration Controller</t>
+  </si>
+  <si>
+    <t>5. @ModelAttribute</t>
+  </si>
+  <si>
+    <t>6. Demo: Passing Parameters</t>
+  </si>
+  <si>
+    <t>7. Demo: ContextLoaderListener and DispatcherServlet Configuration</t>
+  </si>
+  <si>
+    <t>8. Demo: @RequestHeader</t>
+  </si>
+  <si>
+    <t>9. Demo: Resource</t>
+  </si>
+  <si>
+    <t>Create Views in Spring MVC Validation                               Annotations in Spring MVC</t>
+  </si>
+  <si>
+    <t>6. Creating Views in Spring MVC Applications</t>
+  </si>
+  <si>
+    <t>2. Demo: View Configuration</t>
+  </si>
+  <si>
+    <t>3. Demo: View Resolver</t>
+  </si>
+  <si>
+    <t>4. Resolving a View</t>
+  </si>
+  <si>
+    <t>5. Resolve Static Files</t>
+  </si>
+  <si>
+    <t>7. Using Java Server Pages with Spring MVC View</t>
+  </si>
+  <si>
+    <t>2. I18N and Interceptors</t>
+  </si>
+  <si>
+    <t>3. Demo: Adding Internationalization</t>
+  </si>
+  <si>
+    <t>4. Post-Redirect-Get</t>
+  </si>
+  <si>
+    <t>8. Validating Objects in Spring MVC Applications</t>
+  </si>
+  <si>
+    <t>2. Validator Interface</t>
+  </si>
+  <si>
+    <t>3. Demo: Validator Configuration</t>
+  </si>
+  <si>
+    <t>4. Demo: Validation</t>
+  </si>
+  <si>
+    <t>5. Custom Error Messages</t>
+  </si>
+  <si>
+    <t>9. Using Client-side JavaScript in Spring MVC Applications</t>
+  </si>
+  <si>
+    <t>2. Demo: @RestController</t>
+  </si>
+  <si>
+    <t>3. Postman</t>
+  </si>
+  <si>
+    <t>4. Demo: @PostMapping</t>
+  </si>
+  <si>
+    <t>5.  Demo: @PostMapping with XMl Data Exchange</t>
+  </si>
+  <si>
+    <t>6. Demo: jQuery Integration</t>
+  </si>
+  <si>
+    <t>Spring MVC</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1 - Creating a Web Application With Spring Boot</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 - Spring Boot MVC Login Controller</t>
+  </si>
+  <si>
+    <t>spring-framework-exercises.zip</t>
+  </si>
+  <si>
+    <t>Total # of Days for Spring MVC</t>
+  </si>
+  <si>
+    <t>Total # of Hours for Spring  MVC</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Spring REST is the way to go for Java server applications combined with Angular, React, Android or iOS client apps.                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Create Web Services with Spring Boot.                            Write a simple web service. Build a complete web application.                                        Write error handling and tests. </t>
+    </r>
+  </si>
+  <si>
+    <t>2. Introduction</t>
+  </si>
+  <si>
+    <t>1. Introduction and Getting Started</t>
+  </si>
+  <si>
+    <t>3. Building the Friends Web Services</t>
+  </si>
+  <si>
+    <t>1. The CRUD Operations</t>
+  </si>
+  <si>
+    <t>2. Search Functions</t>
+  </si>
+  <si>
+    <t>3. JSON Mapping and Relations</t>
+  </si>
+  <si>
+    <t>4. Error Handling</t>
+  </si>
+  <si>
+    <t>2. ErrorHandler</t>
+  </si>
+  <si>
+    <t>3. Validation API</t>
+  </si>
+  <si>
+    <t>5. Testing</t>
+  </si>
+  <si>
+    <t>2. Integration and Unit Testing</t>
+  </si>
+  <si>
+    <t>3. Testing Error Handling</t>
+  </si>
+  <si>
+    <t>6. Hateoas</t>
+  </si>
+  <si>
+    <t>1. Hateoas: Basic</t>
+  </si>
+  <si>
+    <t>2. Hateoas: One-to-many</t>
+  </si>
+  <si>
+    <t>3. Hateoas: Many-to-many</t>
+  </si>
+  <si>
+    <t>Spring REST</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1 - Build a Spring Boot REST API with Java</t>
+  </si>
+  <si>
+    <t>Total # of Days for Spring REST</t>
+  </si>
+  <si>
+    <t>Total # of Hours for Spring  REST</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>RESTful Web Services with Spring Data JPA and  Hibernate                             Externalized Configurations</t>
+  </si>
+  <si>
+    <t>2. Spring, the Java Persistence API (JPA), and Hibernate</t>
+  </si>
+  <si>
+    <t>2.What Is Spring?</t>
+  </si>
+  <si>
+    <t>3.History</t>
+  </si>
+  <si>
+    <t>4. What Is JPA?</t>
+  </si>
+  <si>
+    <t>5. The Problem</t>
+  </si>
+  <si>
+    <t>3.Walkthrough of the Spring MVC Java App</t>
+  </si>
+  <si>
+    <t>2. Scaffold Application</t>
+  </si>
+  <si>
+    <t>4. The Scaffold App</t>
+  </si>
+  <si>
+    <t>5. Scaffold  App Demo</t>
+  </si>
+  <si>
+    <t>6.What Is in the App?</t>
+  </si>
+  <si>
+    <t>7. Scaffold Application Walkthrough</t>
+  </si>
+  <si>
+    <t>8. Spring MVC Recap</t>
+  </si>
+  <si>
+    <t>4. Architecture Walkthrough of a Spring JPA / Hibernate Application</t>
+  </si>
+  <si>
+    <t>3. MVC Design Pattern</t>
+  </si>
+  <si>
+    <t>4.Tiers</t>
+  </si>
+  <si>
+    <t>5. Components</t>
+  </si>
+  <si>
+    <t>6. Controller</t>
+  </si>
+  <si>
+    <t>7. Service</t>
+  </si>
+  <si>
+    <t>8. Repository</t>
+  </si>
+  <si>
+    <t>5. Recap of Spring Concepts</t>
+  </si>
+  <si>
+    <t>2. Overview of Spring</t>
+  </si>
+  <si>
+    <t>3. Types of Injection</t>
+  </si>
+  <si>
+    <t>4. Setter Injection</t>
+  </si>
+  <si>
+    <t>5. Setter Pojo</t>
+  </si>
+  <si>
+    <t>6. XML and Spring Configuration</t>
+  </si>
+  <si>
+    <t>7. Autowiring Setters</t>
+  </si>
+  <si>
+    <t>8. Constructor Injection</t>
+  </si>
+  <si>
+    <t>9. Spring XML Config Constructor Injection</t>
+  </si>
+  <si>
+    <t>10. Autowiring Constructors</t>
+  </si>
+  <si>
+    <t>11. Context Files</t>
+  </si>
+  <si>
+    <t>12. Summary</t>
+  </si>
+  <si>
+    <t>6. Configuration of Spring and JPA for Development</t>
+  </si>
+  <si>
+    <t>2. Configuration Problems</t>
+  </si>
+  <si>
+    <t>3. Database Overview</t>
+  </si>
+  <si>
+    <t>4. PostgreSQL Setup and Installation</t>
+  </si>
+  <si>
+    <t>5. pom.xml</t>
+  </si>
+  <si>
+    <t>6. pom.xml Demo</t>
+  </si>
+  <si>
+    <t>7. jpaContext.xml</t>
+  </si>
+  <si>
+    <t>8. Entity Manager Factory</t>
+  </si>
+  <si>
+    <t>9. Adding PostgreSQL Dependency</t>
+  </si>
+  <si>
+    <t>10. PostgreSQL  Maven Demo</t>
+  </si>
+  <si>
+    <t>11. application.properties Demo</t>
+  </si>
+  <si>
+    <t>12. Transactional</t>
+  </si>
+  <si>
+    <t>13. Tips and Tricks</t>
+  </si>
+  <si>
+    <t>14. Logging Configuration</t>
+  </si>
+  <si>
+    <t>15. Summary</t>
+  </si>
+  <si>
+    <t>7. Overview of JPA and Creating Your First Entity</t>
+  </si>
+  <si>
+    <t>2. Creating Your First Entity</t>
+  </si>
+  <si>
+    <t>3. @Entity Demo</t>
+  </si>
+  <si>
+    <t>4. Database Creation</t>
+  </si>
+  <si>
+    <t>5. Database Creation Demo</t>
+  </si>
+  <si>
+    <t>6. Verify Database Demo</t>
+  </si>
+  <si>
+    <t>7. Run the App and Verify Tables Demo</t>
+  </si>
+  <si>
+    <t>8. JPA Annotations and How to Use Them</t>
+  </si>
+  <si>
+    <t>2. Annotations</t>
+  </si>
+  <si>
+    <t>3. Entity Annotations</t>
+  </si>
+  <si>
+    <t>4. Entity Annotations Demo</t>
+  </si>
+  <si>
+    <t>5.Uppercase Name</t>
+  </si>
+  <si>
+    <t>6. Uppercase Name Demo</t>
+  </si>
+  <si>
+    <t>7. Default Columns</t>
+  </si>
+  <si>
+    <t>8. Column Names Demo</t>
+  </si>
+  <si>
+    <t>9. How We Use It</t>
+  </si>
+  <si>
+    <t>10. Service Demo</t>
+  </si>
+  <si>
+    <t>11. Repository Demo</t>
+  </si>
+  <si>
+    <t>12. Registration end-to-end Demo</t>
+  </si>
+  <si>
+    <t>13. Recap</t>
+  </si>
+  <si>
+    <t>14. Join Types</t>
+  </si>
+  <si>
+    <t>15. @OneToMany</t>
+  </si>
+  <si>
+    <t>16. @OneToMany Demo</t>
+  </si>
+  <si>
+    <t>17. @ManyToOne Demo</t>
+  </si>
+  <si>
+    <t>Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1 - Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 - Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>RESTful Web Services with Spring Data JPA and  Hibernate  (contd.)</t>
+  </si>
+  <si>
+    <t>8. JPA Annotations and How to Use Them(contd.)</t>
+  </si>
+  <si>
+    <t>18. Fetch Types</t>
+  </si>
+  <si>
+    <t>19. JPQL</t>
+  </si>
+  <si>
+    <t>20. JPQL Demo</t>
+  </si>
+  <si>
+    <t>21. Projection</t>
+  </si>
+  <si>
+    <t>22. Projection Demo</t>
+  </si>
+  <si>
+    <t>23. Named Queries</t>
+  </si>
+  <si>
+    <t>24. Named Queries Demo</t>
+  </si>
+  <si>
+    <t>25. Summary</t>
+  </si>
+  <si>
+    <t>9. How to Configure and Use Spring Data JPA</t>
+  </si>
+  <si>
+    <t>2. Create vs. Update</t>
+  </si>
+  <si>
+    <t>3. Registration Repository Demo</t>
+  </si>
+  <si>
+    <t>4. Registration Service Demo</t>
+  </si>
+  <si>
+    <t>5. Registration Controller</t>
+  </si>
+  <si>
+    <t>6. Postman Registration Call Demo</t>
+  </si>
+  <si>
+    <t>7. Spring Data JPA</t>
+  </si>
+  <si>
+    <t>8. Maven Dependencies</t>
+  </si>
+  <si>
+    <t>9. UserRepository</t>
+  </si>
+  <si>
+    <t>10. UserRepository with Spring Data Demo</t>
+  </si>
+  <si>
+    <t>11. RegistrationRepository</t>
+  </si>
+  <si>
+    <t>12. RegistrationRepository with Spring Data Demo</t>
+  </si>
+  <si>
+    <t>13. NamedQueries with Spring Data Demo</t>
+  </si>
+  <si>
+    <t>14. Spring Data JPA Recap</t>
+  </si>
+  <si>
+    <t>Hand On Assignments</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1  - Spring MVC With Data JPA</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 - Spring MVC with JSP</t>
+  </si>
+  <si>
+    <t>spring-data-jpa-exercises.zip</t>
+  </si>
+  <si>
+    <t>Total # of Days for Spring  Data JPA</t>
+  </si>
+  <si>
+    <t>Total # of Hours for Spring  Data JPA</t>
+  </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Create REST services off of your Spring Data JPA layer with minimal effort.                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Get Spring Data Rest up and running with a real world based project.                                   Enhance Spring Data JPA repositories to automatically provide REST resource based services.                                    </t>
+    </r>
+  </si>
+  <si>
+    <t>2. Integrating and Using Spring Data REST in an Application</t>
+  </si>
+  <si>
+    <t>2. What Can Spring Data REST Do?</t>
+  </si>
+  <si>
+    <t>3. REST Overview</t>
+  </si>
+  <si>
+    <t>4. Demo: Setting up the Codebase</t>
+  </si>
+  <si>
+    <t>5. Setting up the Database</t>
+  </si>
+  <si>
+    <t>6. Demo: Setting Up the Project</t>
+  </si>
+  <si>
+    <t>7. Demo: App Architectural Overview</t>
+  </si>
+  <si>
+    <t>8. Integrating Spring Data REST</t>
+  </si>
+  <si>
+    <t>9. Demo: Setting Up Spring Data REST</t>
+  </si>
+  <si>
+    <t>10. Spring Data REST Ecosystem</t>
+  </si>
+  <si>
+    <t>11. Summary</t>
+  </si>
+  <si>
+    <t>3. Making Repositories RESTful</t>
+  </si>
+  <si>
+    <t>2. Enhancing the Spring Data Repository</t>
+  </si>
+  <si>
+    <t>3. Demo: From Repositories to REST APIs</t>
+  </si>
+  <si>
+    <t>4. Understanding REST API URLs</t>
+  </si>
+  <si>
+    <t>5. Spring Data REST Level 2 Resources</t>
+  </si>
+  <si>
+    <t>6. Demo: Working with CRUD Services</t>
+  </si>
+  <si>
+    <t>7. Demo: Customizing Services</t>
+  </si>
+  <si>
+    <t>8. Demo: Working with Association Resources</t>
+  </si>
+  <si>
+    <t>Spring Data REST</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1 - Spring Data REST - Developing RESTful APIs with Ease</t>
+  </si>
+  <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <t>Customize and utilize this framework to meet your specific application needs.</t>
+  </si>
+  <si>
+    <t>4. Customizing REST Payloads</t>
+  </si>
+  <si>
+    <t>2. Demo: From Repositories to REST APIs</t>
+  </si>
+  <si>
+    <t>3. Changing Payloads with Projections</t>
+  </si>
+  <si>
+    <t>4. Creating a Projection</t>
+  </si>
+  <si>
+    <t>5. Demo: Coding a Projection</t>
+  </si>
+  <si>
+    <t>6. Demo: Virtual Projections</t>
+  </si>
+  <si>
+    <t>7. Demo: Projection Excerpts</t>
+  </si>
+  <si>
+    <t>8. Projections: Pros and Cons</t>
+  </si>
+  <si>
+    <t>9. Customizing Payloads with Jackson</t>
+  </si>
+  <si>
+    <t>5. Searching, Paging, Validating, and Event Handling</t>
+  </si>
+  <si>
+    <t>2. Hypermedia in a REST API</t>
+  </si>
+  <si>
+    <t>3. Spring Data REST Hypermedia Components</t>
+  </si>
+  <si>
+    <t>4. Demo: Exploring Hypermedia</t>
+  </si>
+  <si>
+    <t>5. Validation with Spring Data REST</t>
+  </si>
+  <si>
+    <t>6. Demo: Constraint Validation</t>
+  </si>
+  <si>
+    <t>7. Demo: Event Validation</t>
+  </si>
+  <si>
+    <t>8. Searching and Filtering with Spring Data REST</t>
+  </si>
+  <si>
+    <t>9. Demo: Searching and Filtering</t>
+  </si>
+  <si>
+    <t>10. Paging and Sorting an API</t>
+  </si>
+  <si>
+    <t>11.Demo: Paging and Sorting</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 - Expose RESTful APIs around Spring Data Repositories</t>
+  </si>
+  <si>
+    <t>Total # of Days for Spring  Data REST</t>
+  </si>
+  <si>
+    <t>Total # of Hours for Spring  Data REST</t>
   </si>
 </sst>
 </file>
@@ -273,11 +1396,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -329,10 +1452,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.05"/>
-      <color rgb="FFEFEFEF"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -346,6 +1477,46 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF738F93"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14.05"/>
+      <color rgb="FFEFEFEF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -369,9 +1540,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,7 +1556,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,23 +1656,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,67 +1671,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,21 +1681,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -553,7 +1717,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +1747,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +1777,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,25 +1837,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,91 +1879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,19 +1891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,30 +1991,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -881,6 +2021,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -907,15 +2080,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -927,7 +2091,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,134 +2109,134 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1086,64 +2250,124 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1152,10 +2376,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1476,10 +2700,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A7:I18"/>
+  <dimension ref="A4:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1490,89 +2714,219 @@
     <col min="9" max="9" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="13.5"/>
-    <row r="8" ht="13.5" spans="6:9">
-      <c r="F8" s="18" t="s">
+    <row r="4" ht="13.5"/>
+    <row r="5" ht="13.5" spans="6:9">
+      <c r="F5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I5" s="37" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="6" ht="15.75" spans="6:9">
+      <c r="F6" s="38">
+        <v>1</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="40">
+        <v>2</v>
+      </c>
+      <c r="I6" s="40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="6:9">
+      <c r="F7" s="41">
+        <v>2</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="40">
+        <v>1</v>
+      </c>
+      <c r="I7" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="6:9">
+      <c r="F8" s="43">
+        <v>3</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="40">
+        <v>7</v>
+      </c>
+      <c r="I8" s="40">
+        <v>56</v>
+      </c>
+    </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="20">
+      <c r="F9" s="43">
+        <v>4</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="40">
         <v>1</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="I9" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="6:9">
+      <c r="F10" s="41">
+        <v>5</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="40">
         <v>4</v>
       </c>
-      <c r="H9" s="22">
+      <c r="I10" s="40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="6:9">
+      <c r="F11" s="44"/>
+      <c r="G11" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:1">
+      <c r="A14" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:4">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:6">
+      <c r="A16" s="49">
+        <v>1</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:6">
+      <c r="A17" s="49">
         <v>2</v>
       </c>
-      <c r="I9" s="22">
+      <c r="B17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+    </row>
+    <row r="18" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A18" s="49">
+        <v>3</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" spans="6:9">
-      <c r="F10" s="23"/>
-      <c r="G10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="27">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:4">
+      <c r="A20" s="47"/>
+      <c r="B20" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+    </row>
+    <row r="21" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A21" s="49">
         <v>1</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="27">
+      <c r="B21" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A22" s="53">
         <v>2</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" ht="26" customHeight="1" spans="1:6">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="B22" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A23" s="53">
+        <v>3</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" customFormat="1" ht="54" customHeight="1" spans="1:6">
+      <c r="A24" s="53">
+        <v>4</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1584,10 +2938,10 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -1599,386 +2953,3456 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:3">
       <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
       <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
+      <c r="B7" s="6"/>
+      <c r="C7" s="34" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
       <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="9" t="s">
-        <v>21</v>
+      <c r="B8" s="6"/>
+      <c r="C8" s="34" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9" t="s">
-        <v>22</v>
+      <c r="B9" s="6"/>
+      <c r="C9" s="34" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="10" t="s">
-        <v>23</v>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" ht="52" customHeight="1" spans="1:3">
       <c r="A12" s="3"/>
-      <c r="B12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="12" customHeight="1" spans="1:3">
       <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10" t="s">
-        <v>26</v>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:3">
       <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10" t="s">
-        <v>27</v>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:3">
       <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="10" t="s">
-        <v>28</v>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="10" t="s">
-        <v>29</v>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10" t="s">
-        <v>30</v>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1" spans="1:3">
       <c r="A18" s="3"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="9" t="s">
-        <v>31</v>
+      <c r="B18" s="6"/>
+      <c r="C18" s="34" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
       <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="10" t="s">
-        <v>32</v>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" ht="9" customHeight="1" spans="1:3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" ht="24.75" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" ht="38" customHeight="1" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="1:3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" ht="10" customHeight="1" spans="1:1">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" ht="9" customHeight="1" spans="1:3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+    </row>
+    <row r="25" ht="24.75" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" ht="38" customHeight="1" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" ht="21" customHeight="1" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" ht="17" customHeight="1" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" ht="13" customHeight="1" spans="1:3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" ht="21" customHeight="1" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="35"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="6"/>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="6"/>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="6"/>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="6"/>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="6"/>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="6"/>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="6"/>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" ht="18" customHeight="1" spans="1:3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" ht="18" customHeight="1" spans="1:3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="6"/>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" ht="18" customHeight="1" spans="1:3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="6"/>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" ht="16" customHeight="1" spans="1:3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="6"/>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" ht="9" customHeight="1" spans="1:3">
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+    </row>
+    <row r="53" ht="18.75" spans="1:2">
+      <c r="A53" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" ht="18.75" spans="1:2">
+      <c r="A54" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="22">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="A26:A49"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="B46:B49"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="27"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" ht="15" spans="1:3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="27"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" ht="15" spans="1:3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" ht="15" spans="1:3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" ht="15" spans="1:3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="1:3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" ht="15" spans="1:3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="27"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A37" s="27"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" customFormat="1" ht="15" spans="1:3">
+      <c r="A38" s="27"/>
+      <c r="B38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" ht="15" spans="1:3">
+      <c r="A39" s="27"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="15" spans="1:3">
+      <c r="A40" s="27"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" ht="7" customHeight="1" spans="1:3">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+    </row>
+    <row r="43" ht="37.5" spans="1:2">
+      <c r="A43" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="37.5" spans="1:2">
+      <c r="A44" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="22">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A40"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B38:B40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="33.7916666666667" customWidth="1"/>
+    <col min="2" max="2" width="39.8916666666667" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="27"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" ht="15" spans="1:3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="27"/>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" ht="15" spans="1:3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="27"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" spans="1:3">
+      <c r="A37" s="27"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" ht="15" spans="1:3">
+      <c r="A38" s="27"/>
+      <c r="B38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:3">
+      <c r="A39" s="27"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:3">
+      <c r="A40" s="27"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:3">
+      <c r="A41" s="27"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:3">
+      <c r="A42" s="27"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:3">
+      <c r="A43" s="27"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:3">
+      <c r="A44" s="27"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:3">
+      <c r="A45" s="27"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:3">
+      <c r="A46" s="27"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" spans="1:3">
+      <c r="A47" s="27"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" ht="15" spans="1:3">
+      <c r="A48" s="27"/>
+      <c r="B48" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:3">
+      <c r="A49" s="27"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="1:3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:3">
+      <c r="A52" s="27"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:3">
+      <c r="A53" s="27"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:3">
+      <c r="A54" s="27"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:3">
+      <c r="A55" s="27"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:3">
+      <c r="A56" s="27"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="1:3">
+      <c r="A57" s="27"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:3">
+      <c r="A58" s="27"/>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" ht="15" spans="1:3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" ht="15" spans="1:3">
+      <c r="A60" s="27"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="1:3">
+      <c r="A61" s="27"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="1:3">
+      <c r="A62" s="27"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:3">
+      <c r="A63" s="27"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="1:3">
+      <c r="A64" s="27"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" ht="15" spans="1:3">
+      <c r="A65" s="27"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="1:3">
+      <c r="A66" s="27"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" ht="15" spans="1:3">
+      <c r="A67" s="27"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" ht="15" spans="1:3">
+      <c r="A68" s="27"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" ht="15" spans="1:3">
+      <c r="A69" s="27"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" ht="15" spans="1:3">
+      <c r="A70" s="27"/>
+      <c r="B70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" ht="15" spans="1:3">
+      <c r="A71" s="27"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" ht="15" spans="1:3">
+      <c r="A72" s="27"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="27"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" hidden="1" spans="1:3">
+      <c r="A74" s="27"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="28"/>
+    </row>
+    <row r="75" ht="15" spans="1:3">
+      <c r="A75" s="27"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" ht="9" customHeight="1" spans="1:3">
+      <c r="A76" s="29"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+    </row>
+    <row r="79" ht="18.75" spans="1:2">
+      <c r="A79" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" ht="18.75" spans="1:2">
+      <c r="A80" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="22">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A75"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="B16:B28"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="C73:C74"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" ht="15" spans="1:3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="16"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" ht="15" spans="1:3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" ht="15" spans="1:3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" spans="1:3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" spans="1:3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" ht="15" spans="1:3">
+      <c r="A37" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="16"/>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" ht="15" spans="1:3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:3">
+      <c r="A48" s="16"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" ht="18" spans="1:3">
+      <c r="A49" s="16"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" ht="15" spans="1:3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:3">
+      <c r="A51" s="16"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:3">
+      <c r="A52" s="16"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:3">
+      <c r="A53" s="16"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" ht="15" spans="1:3">
+      <c r="A57" s="16"/>
+      <c r="B57" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="1:3">
+      <c r="A59" s="16"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" ht="15" spans="1:3">
+      <c r="A60" s="16"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="1:3">
+      <c r="A61" s="16"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="1:3">
+      <c r="A62" s="16"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="1:3">
+      <c r="A64" s="16"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" ht="15" spans="1:3">
+      <c r="A65" s="16"/>
+      <c r="B65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="1:3">
+      <c r="A66" s="16"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="16"/>
+      <c r="B67" s="7"/>
+      <c r="C67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" ht="15" spans="1:3">
+      <c r="A68" s="16"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" ht="9" customHeight="1" spans="1:3">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+    </row>
+    <row r="72" ht="18.75" spans="1:2">
+      <c r="A72" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" ht="18.75" spans="1:2">
+      <c r="A73" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B73" s="22">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A36"/>
+    <mergeCell ref="A37:A68"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="B65:B68"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" ht="15" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" ht="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" ht="15" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="10" t="s">
-        <v>38</v>
+      <c r="C24" s="24"/>
+    </row>
+    <row r="25" ht="8" customHeight="1" spans="1:3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="28" ht="18.75" spans="1:2">
+      <c r="A28" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" spans="1:2">
+      <c r="A29" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" s="22">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C23:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123:A125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="39.8916666666667" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" ht="18.75" spans="1:3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" spans="1:3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" spans="1:3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" spans="1:3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" spans="1:3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" spans="1:3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" spans="1:3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" spans="1:3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" ht="18.75" spans="1:3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" spans="1:3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" spans="1:3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" spans="1:3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" spans="1:3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" spans="1:3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" spans="1:3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" spans="1:3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" spans="1:3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" ht="18.75" spans="1:3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" spans="1:3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" spans="1:3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" spans="1:3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" spans="1:3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" ht="18.75" spans="1:3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" spans="1:3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" spans="1:3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" spans="1:3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" spans="1:3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" ht="18.75" spans="1:3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" ht="18.75" spans="1:3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="16"/>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" ht="18.75" spans="1:3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" ht="18.75" spans="1:3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" ht="18.75" spans="1:3">
+      <c r="A48" s="16"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" spans="1:3">
+      <c r="A49" s="16"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" ht="18.75" spans="1:3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" ht="18.75" spans="1:3">
+      <c r="A51" s="16"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" ht="18.75" spans="1:3">
+      <c r="A52" s="16"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" ht="18.75" spans="1:3">
+      <c r="A53" s="16"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" ht="18.75" spans="1:3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" ht="18.75" spans="1:3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" ht="18.75" spans="1:3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" ht="18.75" spans="1:3">
+      <c r="A57" s="16"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" ht="18.75" spans="1:3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" ht="18.75" spans="1:3">
+      <c r="A59" s="16"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" ht="18.75" spans="1:3">
+      <c r="A60" s="16"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="16"/>
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" ht="18.75" spans="1:3">
+      <c r="A62" s="16"/>
+      <c r="B62" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" ht="18.75" spans="1:3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" ht="18.75" spans="1:3">
+      <c r="A64" s="16"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" ht="18.75" spans="1:3">
+      <c r="A65" s="16"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" ht="18.75" spans="1:3">
+      <c r="A66" s="16"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" ht="18.75" spans="1:3">
+      <c r="A67" s="16"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" ht="18.75" spans="1:3">
+      <c r="A68" s="16"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" ht="18.75" spans="1:3">
+      <c r="A69" s="16"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="16"/>
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" ht="18.75" spans="1:3">
+      <c r="A71" s="16"/>
+      <c r="B71" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" ht="18.75" spans="1:3">
+      <c r="A72" s="16"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" ht="18.75" spans="1:3">
+      <c r="A73" s="16"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="74" ht="18.75" spans="1:3">
+      <c r="A74" s="16"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" ht="18.75" spans="1:3">
+      <c r="A75" s="16"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="76" ht="18.75" spans="1:3">
+      <c r="A76" s="16"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" ht="18.75" spans="1:3">
+      <c r="A77" s="16"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" ht="18.75" spans="1:3">
+      <c r="A78" s="16"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="79" ht="18.75" spans="1:3">
+      <c r="A79" s="16"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="80" ht="18.75" spans="1:3">
+      <c r="A80" s="16"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" ht="18.75" spans="1:3">
+      <c r="A81" s="16"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="82" ht="18.75" spans="1:3">
+      <c r="A82" s="16"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" ht="18.75" spans="1:3">
+      <c r="A83" s="16"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" ht="18.75" spans="1:3">
+      <c r="A84" s="16"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" ht="18.75" spans="1:3">
+      <c r="A85" s="16"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" ht="18.75" spans="1:3">
+      <c r="A86" s="16"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87" ht="18.75" spans="1:3">
+      <c r="A87" s="16"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" ht="18.75" spans="1:3">
+      <c r="A88" s="16"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="17"/>
+    </row>
+    <row r="89" ht="17" customHeight="1" spans="1:3">
+      <c r="A89" s="16"/>
+      <c r="B89" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" ht="18.75" spans="1:3">
+      <c r="A90" s="16"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="91" ht="18.75" spans="1:3">
+      <c r="A91" s="16"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+    </row>
+    <row r="93" ht="24.75" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" ht="18.75" spans="1:3">
+      <c r="A94" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="95" ht="18.75" spans="1:3">
+      <c r="A95" s="16"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="96" ht="18.75" spans="1:3">
+      <c r="A96" s="16"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" ht="18.75" spans="1:3">
+      <c r="A97" s="16"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="98" ht="18.75" spans="1:3">
+      <c r="A98" s="16"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" ht="18.75" spans="1:3">
+      <c r="A99" s="16"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="100" ht="18.75" spans="1:3">
+      <c r="A100" s="16"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="101" ht="18.75" spans="1:3">
+      <c r="A101" s="16"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="16"/>
+      <c r="C102" s="13"/>
+    </row>
+    <row r="103" ht="18.75" spans="1:3">
+      <c r="A103" s="16"/>
+      <c r="B103" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" ht="18.75" spans="1:3">
+      <c r="A104" s="16"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" ht="18.75" spans="1:3">
+      <c r="A105" s="16"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" ht="18.75" spans="1:3">
+      <c r="A106" s="16"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107" ht="18.75" spans="1:3">
+      <c r="A107" s="16"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="108" ht="18.75" spans="1:3">
+      <c r="A108" s="16"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="109" ht="18.75" spans="1:3">
+      <c r="A109" s="16"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="110" ht="18.75" spans="1:3">
+      <c r="A110" s="16"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="111" ht="18.75" spans="1:3">
+      <c r="A111" s="16"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="112" ht="18.75" spans="1:3">
+      <c r="A112" s="16"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="113" ht="18.75" spans="1:3">
+      <c r="A113" s="16"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="114" ht="37.5" spans="1:3">
+      <c r="A114" s="16"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="115" ht="18.75" spans="1:3">
+      <c r="A115" s="16"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" ht="18.75" spans="1:3">
+      <c r="A116" s="16"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="117" ht="18.75" spans="1:3">
+      <c r="A117" s="16"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="16"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+    </row>
+    <row r="119" ht="37.5" spans="1:3">
+      <c r="A119" s="16"/>
+      <c r="B119" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="120" ht="18.75" spans="1:3">
+      <c r="A120" s="16"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="121" ht="18.75" spans="1:3">
+      <c r="A121" s="16"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+    </row>
+    <row r="126" ht="18.75" spans="1:2">
+      <c r="A126" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B126" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" ht="18.75" spans="1:2">
+      <c r="A127" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="B127" s="22">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A3:A91"/>
+    <mergeCell ref="A94:A121"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="B46:B60"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="B71:B87"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="B103:B117"/>
+    <mergeCell ref="B119:B120"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="3"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" ht="21" customHeight="1" spans="1:3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="3"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="1:3">
+    </row>
+    <row r="27" customFormat="1" ht="15" spans="1:3">
       <c r="A27" s="3"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C27" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="15" spans="1:3">
       <c r="A28" s="3"/>
       <c r="B28" s="7"/>
       <c r="C28" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" ht="17" customHeight="1" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" ht="13" customHeight="1" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" ht="21" customHeight="1" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="7"/>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="7"/>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="7"/>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="7"/>
-      <c r="C38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="7"/>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="7"/>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="7"/>
-      <c r="C41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" ht="18" customHeight="1" spans="1:3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" ht="18" customHeight="1" spans="1:3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="7"/>
-      <c r="C44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" ht="18" customHeight="1" spans="1:3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="7"/>
-      <c r="C45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" ht="16" customHeight="1" spans="1:3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="7"/>
-      <c r="C46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="9" customHeight="1" spans="1:3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" customFormat="1" ht="24.75" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" ht="15" spans="1:3">
+      <c r="A31" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" spans="1:3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" ht="15" spans="1:3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:3">
+      <c r="A44" s="11"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:3">
+      <c r="A47" s="11"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="5" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>62</v>
+      <c r="A48" s="11"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="5" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" ht="9" customHeight="1" spans="1:3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="53" ht="18.75" spans="1:2">
-      <c r="A53" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="17">
+      <c r="A49" s="11"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="1:3">
+      <c r="A50" s="11"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="11"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="11"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:3">
+      <c r="A54" s="11"/>
+      <c r="B54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" ht="9" customHeight="1" spans="1:3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+    </row>
+    <row r="60" customFormat="1" ht="37.5" spans="1:2">
+      <c r="A60" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B60" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="54" ht="18.75" spans="1:2">
-      <c r="A54" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="17">
+    <row r="61" customFormat="1" ht="37.5" spans="1:2">
+      <c r="A61" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B61" s="15">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="A23:A49"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="A31:A55"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="B42:B53"/>
+    <mergeCell ref="B54:B55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/JEE with Mulesoft - TOC.xlsx
+++ b/JEE with Mulesoft - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Spring REST" sheetId="26" r:id="rId6"/>
     <sheet name="Spring  Data JPA" sheetId="27" r:id="rId7"/>
     <sheet name="Spring Data REST" sheetId="28" r:id="rId8"/>
+    <sheet name="Microservices Adv." sheetId="29" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="557">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -307,6 +308,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Servlets and JSPs    </t>
     </r>
     <r>
@@ -1389,18 +1397,940 @@
   <si>
     <t>Total # of Hours for Spring  Data REST</t>
   </si>
+  <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Microservices Fundamentals  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn about several key principles and practices that will enable you to successfully architect, build, and deliver microservice applications that are scalable, flexible, resilient, and secure.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Introducing Microservices</t>
+  </si>
+  <si>
+    <t>2. What Are Microservices?</t>
+  </si>
+  <si>
+    <t>3. The Problem of Monoliths</t>
+  </si>
+  <si>
+    <t>4. The Benefits of Microservices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. The Challenges of Microservices  </t>
+  </si>
+  <si>
+    <t>3. Architecting Microservices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Evolving Towards Microservices </t>
+  </si>
+  <si>
+    <t>3. Microservices Own Their Own Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. EShopOnContainers Architecture </t>
+  </si>
+  <si>
+    <t>5. Components of a Microservice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Microservices Are Independently Deployable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Identifying Microservice Boundaries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. EShopOnContainers Service Boundaries </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RestTemplate is a class within the Spring framework that helps us to consume APIs elegantly and consistently. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Understand how to use RestTemplate for invoking REST APIs of different shapes.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Guide to Spring RestTemplate</t>
+  </si>
+  <si>
+    <t>1. What is Spring RestTemplate?</t>
+  </si>
+  <si>
+    <t>2. Some Useful Methods of RestTemplate</t>
+  </si>
+  <si>
+    <t>3. Project Setup for Running the Demos</t>
+  </si>
+  <si>
+    <t>4. Making an HTTP GET Request to Obtain the JSON Response</t>
+  </si>
+  <si>
+    <t>5. Making an HTTP GET Request to Obtain the Response as a POJO</t>
+  </si>
+  <si>
+    <t>6. Making an HTTP POST Request</t>
+  </si>
+  <si>
+    <t>7. Using exchange() for POST</t>
+  </si>
+  <si>
+    <t>8. Using exchange() for PUT with an Empty Response Body</t>
+  </si>
+  <si>
+    <t>9. Using execute() for Downloading Large Files</t>
+  </si>
+  <si>
+    <t>10. Invoking APIs with application/form Type Input</t>
+  </si>
+  <si>
+    <t>11. Configuring the HTTP Client in RestTemplate</t>
+  </si>
+  <si>
+    <t>12. Attaching an ErrorHandler to RestTemplate</t>
+  </si>
+  <si>
+    <t>13. Attaching MessageConverters to the RestTemplate</t>
+  </si>
+  <si>
+    <t>14. Comparison with Other HTTP Clients</t>
+  </si>
+  <si>
+    <t>5. Building @Async REST APIs with Spring @EnableAsync</t>
+  </si>
+  <si>
+    <t>1. Spring @Async REST Controller</t>
+  </si>
+  <si>
+    <t>a. Create async thread pool</t>
+  </si>
+  <si>
+    <t>b. @Async controller methods</t>
+  </si>
+  <si>
+    <t>c. Combine async method results</t>
+  </si>
+  <si>
+    <t>2. Spring @Async REST Controller Demo</t>
+  </si>
+  <si>
+    <t>2.1. EmployeeName, EmployeeAddress and EmployeePhone APIs to be accessed async way</t>
+  </si>
+  <si>
+    <t>2.2. Async thread pool configuration</t>
+  </si>
+  <si>
+    <t>2.3. Spring @Async controller methods</t>
+  </si>
+  <si>
+    <t>2.4. Call async methods and aggregate results</t>
+  </si>
+  <si>
+    <t>2.5. Running the demo</t>
+  </si>
+  <si>
+    <t>2.5.1. With @Async Enabled</t>
+  </si>
+  <si>
+    <t>2.5.2. Without Async Enabled</t>
+  </si>
+  <si>
+    <t>Creating asynchronous queries with Spring REST Template</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1 - Creating Asynchronous Methods</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Spring Cloud helps you build or migrate existing applications to run natively-in-the-cloud, or "cloud native" as it's commonly called.                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Learn about how Spring Cloud builds upon Netflix OSS and helps by providing common patterns and solutions like service discovery                       (Netflix Eureka)  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                             </t>
+    </r>
+  </si>
+  <si>
+    <t>2. Getting Familiar with Spring Cloud</t>
+  </si>
+  <si>
+    <t>1. The Infamous Cloud</t>
+  </si>
+  <si>
+    <t>2. New Challenges with the Cloud</t>
+  </si>
+  <si>
+    <t>3. The Focus for the Course</t>
+  </si>
+  <si>
+    <t>4. Prerequisites</t>
+  </si>
+  <si>
+    <t>3. Finding Services Using Service Discovery</t>
+  </si>
+  <si>
+    <t>1. What Is Service Discovery?</t>
+  </si>
+  <si>
+    <t>2. Introducing Spring Cloud Netflix</t>
+  </si>
+  <si>
+    <t>3. Key Components Involved in Service Discovery</t>
+  </si>
+  <si>
+    <t>4. The Discovery Server</t>
+  </si>
+  <si>
+    <t>5. Demo: Setting up a Service Discovery Server</t>
+  </si>
+  <si>
+    <t>6. The Application Service</t>
+  </si>
+  <si>
+    <t>7. Demo: Making an Application Service Discoverable</t>
+  </si>
+  <si>
+    <t>8. The Application Client</t>
+  </si>
+  <si>
+    <t>9. Demo: Finding and Calling Services as an Application Client</t>
+  </si>
+  <si>
+    <t>10. Spring Cloud Eureka Dashboard</t>
+  </si>
+  <si>
+    <t>11. Configuration</t>
+  </si>
+  <si>
+    <t>12. Health and High Availability</t>
+  </si>
+  <si>
+    <t>Spring Cloud Eureka Server and Client</t>
+  </si>
+  <si>
+    <t>1. Hands On Lab 1 -  Create a Spring Cloud Eureka Server and Client</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Spring Cloud Config provides server-side and client-side support for externalized configuration in a distributed system.                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Set up a central place to manage external properties for your applications across all environments.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Configuring Services Using Distributed Configuration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>What Is a Configuration Server?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Introducing Spring Cloud Config Server</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Using the Spring Cloud Config Server</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Config Server REST Support: Parameters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Config Server REST Support: Endpoints</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Demo: Setting up a Configuration Server</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Using the Spring Cloud Config Client</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Demo: Retrieving Configuration with the Config Client</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Summary</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring Cloud Config Server and Client</t>
+  </si>
+  <si>
+    <t>1. Hands On Lab 2 -  Create a Spring Cloud Config Server and Client</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Netflix Ribbon is an Inter Process Communication (IPC) cloud library.                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Learn to use Ribbon's client-side load balancing algorithms.</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Calling Services Using Client-side Load Balancing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Module Introduction</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Client-side vs. Server-side Load Balancing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Getting Started with Spring Cloud and Netflix Ribbon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Using the @LoadBalanced Annotation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Demo: Load Balancing Using Ribbon with Service Discovery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Using the @RibbonClient Annotation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Demo: Load Balancing Using Ribbon Without Service Discovery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Customizing Your RibbonClient Configuration: Introduction</t>
+    </r>
+  </si>
+  <si>
+    <t>9. Customizing Your RibbonClient Configuration: The IRule Bean</t>
+  </si>
+  <si>
+    <t>10. Customizing Your RibbonClient Configuration: The IPing Bean</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">11. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Demo: Customizing the RibbonClient Load Balancing Strategy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">12. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Summary</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring Cloud with Netflix Ribbon</t>
+  </si>
+  <si>
+    <t>Hands On Lab 3 -  Using Ribbon Clients</t>
+  </si>
+  <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Spring Boot is an extension of the Spring framework that helps developers build simple and web-based applications quickly, with less code, by removing much of the boilerplate code and configuration that characterizes Spring.       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     Utilize major features of Spring Boot Auto-Configuration, Custom Logging, Profiles, Actuator and more.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Custom Logging and Profiles</t>
+  </si>
+  <si>
+    <t>1. Overview</t>
+  </si>
+  <si>
+    <t>2. Demo: Auto Configuration</t>
+  </si>
+  <si>
+    <t>3. Spring Boot Annotations</t>
+  </si>
+  <si>
+    <t>4. Spring Boot Properties</t>
+  </si>
+  <si>
+    <t>5. Spring Boot Custom Logging</t>
+  </si>
+  <si>
+    <t>7. Spring Boot Profiles</t>
+  </si>
+  <si>
+    <t>2. Enabling Actuators, Metrics, and Health Indicators</t>
+  </si>
+  <si>
+    <t>2. Actuator</t>
+  </si>
+  <si>
+    <t>3. Custom Endpoints</t>
+  </si>
+  <si>
+    <t>4. Summary</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1 -  A Simple RESTful API in Spring Boot</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 -  Spring Boot with H2 Database</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thymeleaf has some of the best integration with Spring of any of the templating frameworks out there.                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn the  lightweight HTML5 framework adopted by the Spring development community.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Using Thymeleaf in Spring MVC Views</t>
+  </si>
+  <si>
+    <t>2. Demo: Thymeleaf Configuration</t>
+  </si>
+  <si>
+    <t>3. Template Resolver</t>
+  </si>
+  <si>
+    <t>4. Template Engine</t>
+  </si>
+  <si>
+    <t>5. View Resolver</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Spring Boot has and opinionated approach to security.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                   Walk  through the process of creating a simple web application with resources that are protected by Spring Security.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Securing a Web Application With Spring Boot Security</t>
+  </si>
+  <si>
+    <t>1. Starting with Spring Initializr</t>
+  </si>
+  <si>
+    <t>2. Create an Unsecured Web Application</t>
+  </si>
+  <si>
+    <t>3. Set up Spring Security</t>
+  </si>
+  <si>
+    <t>4. Run the Application</t>
+  </si>
+  <si>
+    <t>5. Build an executable JAR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Spring Boot and OAuth2      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     Learn how to build a sample app doing various things with "social login" using OAuth 2.0 and Spring Boot.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Single Sign On With GitHub</t>
+  </si>
+  <si>
+    <t>2. Creating a New Project</t>
+  </si>
+  <si>
+    <t>3. Add a Home Page</t>
+  </si>
+  <si>
+    <t>4. Securing the Application with GitHub and Spring Security</t>
+  </si>
+  <si>
+    <t>5. Add a New GitHub App</t>
+  </si>
+  <si>
+    <t>7. Configure application.yml</t>
+  </si>
+  <si>
+    <t>8. Boot Up the Application</t>
+  </si>
+  <si>
+    <t>9. What Just Happened?</t>
+  </si>
+  <si>
+    <t>2. Add an explicit link that the user has to click to login.</t>
+  </si>
+  <si>
+    <t>1. Add a Welcome Page</t>
+  </si>
+  <si>
+    <t>2. Conditional Content on the Home Page</t>
+  </si>
+  <si>
+    <t>3. The /user Endpoint</t>
+  </si>
+  <si>
+    <t>4. Making the Home Page Public</t>
+  </si>
+  <si>
+    <t>9.What Just Happened?</t>
+  </si>
+  <si>
+    <t>Total # of Days for Microservices Advanced using Spring Boot and RestTemplate</t>
+  </si>
+  <si>
+    <t>Total # of Hours for Microservices Advanced using Spring Boot and RestTemplate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1445,14 +2375,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1467,16 +2389,17 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1489,7 +2412,47 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF738F93"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -1501,22 +2464,29 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14.05"/>
       <color rgb="FFEFEFEF"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1541,7 +2511,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,40 +2526,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1609,8 +2555,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1623,16 +2570,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1647,8 +2586,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1656,14 +2640,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1677,11 +2654,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="14"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1717,13 +2693,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,49 +2855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,109 +2867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1991,6 +2967,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2021,11 +3006,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2054,21 +3045,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2091,15 +3067,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2109,134 +3085,134 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2257,44 +3233,76 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2304,21 +3312,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2331,41 +3333,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2716,205 +3718,205 @@
   <sheetData>
     <row r="4" ht="13.5"/>
     <row r="5" ht="13.5" spans="6:9">
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="6:9">
-      <c r="F6" s="38">
+      <c r="F6" s="48">
         <v>1</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="50">
         <v>2</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="50">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="6:9">
-      <c r="F7" s="41">
+      <c r="F7" s="51">
         <v>2</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="50">
         <v>1</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="50">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="6:9">
-      <c r="F8" s="43">
+      <c r="F8" s="53">
         <v>3</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="50">
         <v>7</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="50">
         <v>56</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="43">
+      <c r="F9" s="53">
         <v>4</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="50">
         <v>1</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="50">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="6:9">
-      <c r="F10" s="41">
+      <c r="F10" s="51">
         <v>5</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="50">
         <v>4</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="50">
         <v>32</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="6:9">
-      <c r="F11" s="44"/>
-      <c r="G11" s="45" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="56" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="57" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:4">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
     </row>
     <row r="16" customFormat="1" spans="1:6">
-      <c r="A16" s="49">
+      <c r="A16" s="59">
         <v>1</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" customFormat="1" spans="1:6">
-      <c r="A17" s="49">
+      <c r="A17" s="59">
         <v>2</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A18" s="49">
+      <c r="A18" s="59">
         <v>3</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="20" customFormat="1" spans="1:4">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
     </row>
     <row r="21" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A21" s="49">
+      <c r="A21" s="59">
         <v>1</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" customFormat="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A22" s="53">
+      <c r="A22" s="63">
         <v>2</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A23" s="53">
+      <c r="A23" s="63">
         <v>3</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" customFormat="1" ht="54" customHeight="1" spans="1:6">
-      <c r="A24" s="53">
+      <c r="A24" s="63">
         <v>4</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2976,49 +3978,49 @@
       <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="42" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:3">
       <c r="A4" s="3"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="42" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="44" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="44" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3039,7 +4041,7 @@
       <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="44" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3081,7 +4083,7 @@
     <row r="18" ht="22" customHeight="1" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="44" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3107,7 +4109,7 @@
       <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3119,9 +4121,9 @@
       </c>
     </row>
     <row r="24" ht="9" customHeight="1" spans="1:3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" ht="24.75" spans="1:3">
       <c r="A25" s="2" t="s">
@@ -3137,7 +4139,7 @@
       <c r="B26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="44" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3158,21 +4160,21 @@
     <row r="29" ht="21" customHeight="1" spans="1:3">
       <c r="A29" s="3"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="44" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:3">
       <c r="A30" s="3"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="3"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="44" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3193,21 +4195,21 @@
     <row r="34" ht="21" customHeight="1" spans="1:3">
       <c r="A34" s="3"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="45" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" ht="15.75" spans="1:3">
       <c r="A36" s="3"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="35"/>
+      <c r="C36" s="45"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3"/>
@@ -3301,23 +4303,23 @@
       </c>
     </row>
     <row r="50" ht="9" customHeight="1" spans="1:3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
     </row>
     <row r="53" ht="18.75" spans="1:2">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:2">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="35">
         <v>16</v>
       </c>
     </row>
@@ -3344,7 +4346,7 @@
   <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:A40"/>
@@ -3376,7 +4378,7 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3387,12 +4389,12 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="6" t="s">
         <v>78</v>
       </c>
@@ -3401,39 +4403,39 @@
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="27"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="15"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="6" t="s">
         <v>84</v>
       </c>
@@ -3442,18 +4444,18 @@
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="6"/>
       <c r="C12" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="27"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="15"/>
+      <c r="C13" s="27"/>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="6" t="s">
         <v>87</v>
       </c>
@@ -3462,47 +4464,47 @@
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="6"/>
       <c r="C15" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="6" t="s">
         <v>94</v>
       </c>
@@ -3511,26 +4513,26 @@
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="27"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="6" t="s">
         <v>98</v>
       </c>
@@ -3539,19 +4541,19 @@
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="6"/>
       <c r="C26" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" ht="15.75" spans="1:3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="6" t="s">
         <v>101</v>
       </c>
@@ -3560,40 +4562,40 @@
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="27"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="6"/>
       <c r="C29" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="27"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="6"/>
       <c r="C30" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="6"/>
       <c r="C31" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="6" t="s">
         <v>106</v>
       </c>
@@ -3602,65 +4604,65 @@
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="27"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A37" s="27"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
     </row>
     <row r="38" customFormat="1" ht="15" spans="1:3">
-      <c r="A38" s="27"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="15" spans="1:3">
-      <c r="A39" s="27"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="7"/>
       <c r="C39" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="15" spans="1:3">
-      <c r="A40" s="27"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="7"/>
       <c r="C40" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="41" ht="7" customHeight="1" spans="1:3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="43" ht="37.5" spans="1:2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="44" ht="37.5" spans="1:2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="35">
         <v>8</v>
       </c>
     </row>
@@ -3719,7 +4721,7 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3730,12 +4732,12 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="6" t="s">
         <v>116</v>
       </c>
@@ -3744,74 +4746,74 @@
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="6"/>
       <c r="C12" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="6"/>
       <c r="C13" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="6"/>
       <c r="C14" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="27"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="15"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="6" t="s">
         <v>126</v>
       </c>
@@ -3820,95 +4822,95 @@
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="27"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="6"/>
       <c r="C26" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="6"/>
       <c r="C27" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="6"/>
       <c r="C28" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="27"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="15"/>
+      <c r="C29" s="27"/>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="27"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="6" t="s">
         <v>140</v>
       </c>
@@ -3917,54 +4919,54 @@
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="6"/>
       <c r="C31" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="27"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="27"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="27"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="6" t="s">
         <v>148</v>
       </c>
@@ -3973,68 +4975,68 @@
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="27"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="27"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="27"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="6"/>
       <c r="C41" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="27"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="6"/>
       <c r="C42" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="27"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="6"/>
       <c r="C43" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="27"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="6"/>
       <c r="C44" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="27"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="27"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="6"/>
       <c r="C46" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:3">
-      <c r="A47" s="27"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="27"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="6" t="s">
         <v>158</v>
       </c>
@@ -4043,74 +5045,74 @@
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="27"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="27"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="27"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="6"/>
       <c r="C51" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="6"/>
       <c r="C52" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="27"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="6"/>
       <c r="C53" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="27"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="6"/>
       <c r="C54" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="27"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="6"/>
       <c r="C55" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="27"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="6"/>
       <c r="C56" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="27"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="6"/>
       <c r="C57" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="27"/>
+      <c r="A58" s="15"/>
       <c r="C58" s="5"/>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="27"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="6" t="s">
         <v>165</v>
       </c>
@@ -4119,132 +5121,132 @@
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="27"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="6"/>
       <c r="C60" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="27"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="6"/>
       <c r="C61" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="27"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="6"/>
       <c r="C62" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="27"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="6"/>
       <c r="C63" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="27"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="6"/>
       <c r="C64" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="27"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="6"/>
       <c r="C65" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="27"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
-      <c r="A67" s="27"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="6"/>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
-      <c r="A68" s="27"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="6"/>
       <c r="C68" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
-      <c r="A69" s="27"/>
+      <c r="A69" s="15"/>
       <c r="C69" s="5"/>
     </row>
     <row r="70" ht="15" spans="1:3">
-      <c r="A70" s="27"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:3">
-      <c r="A71" s="27"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="7"/>
       <c r="C71" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
-      <c r="A72" s="27"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="7"/>
       <c r="C72" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="27"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="39" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="74" hidden="1" spans="1:3">
-      <c r="A74" s="27"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="28"/>
+      <c r="C74" s="39"/>
     </row>
     <row r="75" ht="15" spans="1:3">
-      <c r="A75" s="27"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="39" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="76" ht="9" customHeight="1" spans="1:3">
-      <c r="A76" s="29"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
     </row>
     <row r="79" ht="18.75" spans="1:2">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="22">
+      <c r="B79" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="80" ht="18.75" spans="1:2">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="22">
+      <c r="B80" s="35">
         <v>8</v>
       </c>
     </row>
@@ -4315,12 +5317,12 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="6" t="s">
         <v>184</v>
       </c>
@@ -4329,47 +5331,47 @@
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="6" t="s">
         <v>190</v>
       </c>
@@ -4378,53 +5380,53 @@
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="6"/>
       <c r="C13" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="6"/>
       <c r="C14" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="6"/>
       <c r="C15" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="16"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="24"/>
+      <c r="C19" s="27"/>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="6" t="s">
         <v>197</v>
       </c>
@@ -4433,40 +5435,40 @@
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="6" t="s">
         <v>202</v>
       </c>
@@ -4475,75 +5477,75 @@
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="6"/>
       <c r="C27" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="16"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="6"/>
       <c r="C28" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="6"/>
       <c r="C29" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="6"/>
       <c r="C30" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="16"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="6"/>
       <c r="C31" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="16"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="16"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="35" ht="15.75" spans="1:3">
-      <c r="A35" s="16"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="16"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
     </row>
     <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="24" t="s">
         <v>211</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -4554,137 +5556,137 @@
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="16"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="6"/>
       <c r="C38" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="6"/>
       <c r="C41" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="6"/>
       <c r="C42" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="16"/>
-      <c r="C43" s="13"/>
+      <c r="A43" s="24"/>
+      <c r="C43" s="27"/>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="16"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="16"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="6"/>
       <c r="C46" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="16"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="6"/>
       <c r="C47" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="16"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="49" ht="18" spans="1:3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="5"/>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="16"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="16"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="6"/>
       <c r="C51" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="6"/>
       <c r="C52" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="16"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="6"/>
       <c r="C53" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="16"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="6"/>
       <c r="C54" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="16"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="6"/>
       <c r="C55" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="16"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="6"/>
       <c r="C56" s="5"/>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="16"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="6" t="s">
         <v>226</v>
       </c>
@@ -4693,100 +5695,100 @@
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="6"/>
       <c r="C58" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="6"/>
       <c r="C59" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="16"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="6"/>
       <c r="C60" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="16"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="6"/>
       <c r="C61" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="16"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="6"/>
       <c r="C62" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="16"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="6"/>
       <c r="C63" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="16"/>
-      <c r="B64" s="19"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="5"/>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="16"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="16"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="16"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="7"/>
       <c r="C67" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
-      <c r="A68" s="16"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="69" ht="9" customHeight="1" spans="1:3">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
     </row>
     <row r="72" ht="18.75" spans="1:2">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="B72" s="22">
+      <c r="B72" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:2">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="22">
+      <c r="B73" s="35">
         <v>8</v>
       </c>
     </row>
@@ -4903,7 +5905,7 @@
     <row r="10" ht="18.75" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="17"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="3"/>
@@ -4930,7 +5932,7 @@
     </row>
     <row r="14" ht="15.75" spans="1:3">
       <c r="A14" s="3"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15" ht="15" spans="1:3">
@@ -4958,8 +5960,8 @@
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="3"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="3"/>
@@ -4989,40 +5991,40 @@
       <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="11" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="36" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="24"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="25" ht="8" customHeight="1" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="28" ht="18.75" spans="1:2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="35">
         <v>8</v>
       </c>
     </row>
@@ -5079,7 +6081,7 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>261</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5090,12 +6092,12 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="6" t="s">
         <v>262</v>
       </c>
@@ -5104,607 +6106,607 @@
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" ht="18.75" spans="1:3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="6"/>
       <c r="C14" s="5" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="14" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="18" ht="18.75" spans="1:3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="16"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="24"/>
+      <c r="C22" s="27"/>
     </row>
     <row r="23" ht="18.75" spans="1:3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" ht="18.75" spans="1:3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="14" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="1:3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:3">
-      <c r="A28" s="16"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="14" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="14" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="30" ht="18.75" spans="1:3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="14" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:3">
-      <c r="A31" s="16"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="27"/>
     </row>
     <row r="33" ht="18.75" spans="1:3">
-      <c r="A33" s="16"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34" ht="18.75" spans="1:3">
-      <c r="A34" s="16"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="35" ht="18.75" spans="1:3">
-      <c r="A35" s="16"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="14" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
-      <c r="A36" s="16"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="14" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:3">
-      <c r="A37" s="16"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="14" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="38" ht="18.75" spans="1:3">
-      <c r="A38" s="16"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="14" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="14" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="14" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="41" ht="18.75" spans="1:3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="14" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="1:3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="43" ht="18.75" spans="1:3">
-      <c r="A43" s="16"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="14" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="44" ht="18.75" spans="1:3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="16"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="24"/>
+      <c r="C45" s="27"/>
     </row>
     <row r="46" ht="18.75" spans="1:3">
-      <c r="A46" s="16"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="47" ht="18.75" spans="1:3">
-      <c r="A47" s="16"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="14" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="48" ht="18.75" spans="1:3">
-      <c r="A48" s="16"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="14" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="49" ht="18.75" spans="1:3">
-      <c r="A49" s="16"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="14" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="50" ht="18.75" spans="1:3">
-      <c r="A50" s="16"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:3">
-      <c r="A51" s="16"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="14" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="52" ht="18.75" spans="1:3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="14" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="1:3">
-      <c r="A53" s="16"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="14" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:3">
-      <c r="A54" s="16"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="14" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:3">
-      <c r="A55" s="16"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="14" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="56" ht="18.75" spans="1:3">
-      <c r="A56" s="16"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="14" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="57" ht="18.75" spans="1:3">
-      <c r="A57" s="16"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="14" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="14" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="59" ht="18.75" spans="1:3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="14" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="60" ht="18.75" spans="1:3">
-      <c r="A60" s="16"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="14" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="16"/>
-      <c r="C61" s="13"/>
+      <c r="A61" s="24"/>
+      <c r="C61" s="27"/>
     </row>
     <row r="62" ht="18.75" spans="1:3">
-      <c r="A62" s="16"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="63" ht="18.75" spans="1:3">
-      <c r="A63" s="16"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="14" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="64" ht="18.75" spans="1:3">
-      <c r="A64" s="16"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="65" ht="18.75" spans="1:3">
-      <c r="A65" s="16"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="14" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="66" ht="18.75" spans="1:3">
-      <c r="A66" s="16"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="14" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="67" ht="18.75" spans="1:3">
-      <c r="A67" s="16"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="6"/>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
-      <c r="A68" s="16"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="14" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:3">
-      <c r="A69" s="16"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="16"/>
-      <c r="C70" s="13"/>
+      <c r="A70" s="24"/>
+      <c r="C70" s="27"/>
     </row>
     <row r="71" ht="18.75" spans="1:3">
-      <c r="A71" s="16"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="72" ht="18.75" spans="1:3">
-      <c r="A72" s="16"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="14" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:3">
-      <c r="A73" s="16"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="14" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="74" ht="18.75" spans="1:3">
-      <c r="A74" s="16"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="6"/>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="14" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="75" ht="18.75" spans="1:3">
-      <c r="A75" s="16"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="14" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="76" ht="18.75" spans="1:3">
-      <c r="A76" s="16"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="14" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="77" ht="18.75" spans="1:3">
-      <c r="A77" s="16"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="14" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="78" ht="18.75" spans="1:3">
-      <c r="A78" s="16"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="14" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="79" ht="18.75" spans="1:3">
-      <c r="A79" s="16"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="14" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="80" ht="18.75" spans="1:3">
-      <c r="A80" s="16"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="14" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:3">
-      <c r="A81" s="16"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="14" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:3">
-      <c r="A82" s="16"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="14" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="83" ht="18.75" spans="1:3">
-      <c r="A83" s="16"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="14" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="84" ht="18.75" spans="1:3">
-      <c r="A84" s="16"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="85" ht="18.75" spans="1:3">
-      <c r="A85" s="16"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="14" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="86" ht="18.75" spans="1:3">
-      <c r="A86" s="16"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="14" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="87" ht="18.75" spans="1:3">
-      <c r="A87" s="16"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="14" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:3">
-      <c r="A88" s="16"/>
+      <c r="A88" s="24"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="17"/>
+      <c r="C88" s="14"/>
     </row>
     <row r="89" ht="17" customHeight="1" spans="1:3">
-      <c r="A89" s="16"/>
+      <c r="A89" s="24"/>
       <c r="B89" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="33" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="90" ht="18.75" spans="1:3">
-      <c r="A90" s="16"/>
+      <c r="A90" s="24"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="91" ht="18.75" spans="1:3">
-      <c r="A91" s="16"/>
+      <c r="A91" s="24"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="14" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
     </row>
     <row r="93" ht="24.75" spans="1:3">
       <c r="A93" s="2" t="s">
@@ -5714,222 +6716,222 @@
       <c r="C93" s="2"/>
     </row>
     <row r="94" ht="18.75" spans="1:3">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="14" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="95" ht="18.75" spans="1:3">
-      <c r="A95" s="16"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="17" t="s">
+      <c r="A95" s="24"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="14" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="96" ht="18.75" spans="1:3">
-      <c r="A96" s="16"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="17" t="s">
+      <c r="A96" s="24"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="14" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="97" ht="18.75" spans="1:3">
-      <c r="A97" s="16"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="17" t="s">
+      <c r="A97" s="24"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="14" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="98" ht="18.75" spans="1:3">
-      <c r="A98" s="16"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="17" t="s">
+      <c r="A98" s="24"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="99" ht="18.75" spans="1:3">
-      <c r="A99" s="16"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="17" t="s">
+      <c r="A99" s="24"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="14" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="100" ht="18.75" spans="1:3">
-      <c r="A100" s="16"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="17" t="s">
+      <c r="A100" s="24"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="14" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="101" ht="18.75" spans="1:3">
-      <c r="A101" s="16"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="17" t="s">
+      <c r="A101" s="24"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="14" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="16"/>
-      <c r="C102" s="13"/>
+      <c r="A102" s="24"/>
+      <c r="C102" s="27"/>
     </row>
     <row r="103" ht="18.75" spans="1:3">
-      <c r="A103" s="16"/>
-      <c r="B103" s="19" t="s">
+      <c r="A103" s="24"/>
+      <c r="B103" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="104" ht="18.75" spans="1:3">
-      <c r="A104" s="16"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="17" t="s">
+      <c r="A104" s="24"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="14" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="105" ht="18.75" spans="1:3">
-      <c r="A105" s="16"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="17" t="s">
+      <c r="A105" s="24"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="14" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="106" ht="18.75" spans="1:3">
-      <c r="A106" s="16"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="17" t="s">
+      <c r="A106" s="24"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="14" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="107" ht="18.75" spans="1:3">
-      <c r="A107" s="16"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="17" t="s">
+      <c r="A107" s="24"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="14" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="108" ht="18.75" spans="1:3">
-      <c r="A108" s="16"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="17" t="s">
+      <c r="A108" s="24"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="14" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="109" ht="18.75" spans="1:3">
-      <c r="A109" s="16"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="17" t="s">
+      <c r="A109" s="24"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="14" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="110" ht="18.75" spans="1:3">
-      <c r="A110" s="16"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="17" t="s">
+      <c r="A110" s="24"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:3">
-      <c r="A111" s="16"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="17" t="s">
+      <c r="A111" s="24"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="14" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="112" ht="18.75" spans="1:3">
-      <c r="A112" s="16"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="17" t="s">
+      <c r="A112" s="24"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="14" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="113" ht="18.75" spans="1:3">
-      <c r="A113" s="16"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="17" t="s">
+      <c r="A113" s="24"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="14" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="114" ht="37.5" spans="1:3">
-      <c r="A114" s="16"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="17" t="s">
+      <c r="A114" s="24"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="14" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="115" ht="18.75" spans="1:3">
-      <c r="A115" s="16"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="17" t="s">
+      <c r="A115" s="24"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="14" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="116" ht="18.75" spans="1:3">
-      <c r="A116" s="16"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="17" t="s">
+      <c r="A116" s="24"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="14" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="117" ht="18.75" spans="1:3">
-      <c r="A117" s="16"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="17" t="s">
+      <c r="A117" s="24"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="14" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="16"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
     </row>
     <row r="119" ht="37.5" spans="1:3">
-      <c r="A119" s="16"/>
-      <c r="B119" s="20" t="s">
+      <c r="A119" s="24"/>
+      <c r="B119" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="14" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="120" ht="18.75" spans="1:3">
-      <c r="A120" s="16"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="17" t="s">
+      <c r="A120" s="24"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="14" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="121" ht="18.75" spans="1:3">
-      <c r="A121" s="16"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="17" t="s">
+      <c r="A121" s="24"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="14" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
     </row>
     <row r="126" ht="18.75" spans="1:2">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="B126" s="22">
+      <c r="B126" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="127" ht="18.75" spans="1:2">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="B127" s="22">
+      <c r="B127" s="35">
         <v>16</v>
       </c>
     </row>
@@ -5962,9 +6964,9 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -6166,21 +7168,21 @@
       <c r="B27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="11" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="15" spans="1:3">
       <c r="A28" s="3"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" customFormat="1" ht="24.75" spans="1:3">
       <c r="A30" s="2" t="s">
@@ -6190,7 +7192,7 @@
       <c r="C30" s="2"/>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>390</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -6201,75 +7203,75 @@
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="11"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="11"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="11"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="11"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="11"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="6"/>
       <c r="C38" s="5" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="11"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="11"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="41" ht="15.75" spans="1:3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="5"/>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="11"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="6" t="s">
         <v>400</v>
       </c>
@@ -6278,116 +7280,116 @@
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="11"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="6"/>
       <c r="C43" s="5" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="11"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="6"/>
       <c r="C44" s="5" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="11"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="11"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="6"/>
       <c r="C46" s="5" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="11"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="6"/>
       <c r="C47" s="5" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="11"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="11"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="11"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="11"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="27" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="11"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="27" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="11"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="27" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="11"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="11" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="11"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="56" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
     </row>
     <row r="60" customFormat="1" ht="37.5" spans="1:2">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="1" ht="37.5" spans="1:2">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="32">
         <v>16</v>
       </c>
     </row>
@@ -6407,4 +7409,1191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" ht="15" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="11" customHeight="1" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" ht="15" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="1:3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" ht="15" spans="1:3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="40" ht="12" customHeight="1" spans="1:3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="41" ht="12" customHeight="1" spans="1:3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" ht="17" customHeight="1" spans="1:3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" ht="31" customHeight="1" spans="1:3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44" ht="12" customHeight="1" spans="1:3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="45" ht="12" customHeight="1" spans="1:3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" ht="12" customHeight="1" spans="1:3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="47" ht="12" customHeight="1" spans="1:3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="48" ht="12" customHeight="1" spans="1:3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="49" ht="12" customHeight="1" spans="1:3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" ht="12" customHeight="1" spans="1:3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" ht="15" spans="1:3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="9" customHeight="1" spans="1:3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+    </row>
+    <row r="54" customFormat="1" ht="24.75" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A55" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" ht="15" spans="1:3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A59" s="15"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" ht="15" spans="1:3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A63" s="15"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A64" s="15"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A65" s="15"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A66" s="15"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A67" s="15"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A68" s="15"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A69" s="15"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" ht="37.5" spans="1:3">
+      <c r="A70" s="15"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A71" s="15"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A72" s="15"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A73" s="15"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A74" s="15"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A75" s="15"/>
+      <c r="B75" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" ht="37.5" spans="1:3">
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" ht="14" customHeight="1" spans="1:3">
+      <c r="A77" s="15"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A78" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A79" s="19"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A80" s="19"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A81" s="19"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A82" s="19"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A83" s="19"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A84" s="19"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A85" s="19"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A86" s="19"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="20" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A87" s="19"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A88" s="19"/>
+      <c r="B88" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" ht="37.5" spans="1:3">
+      <c r="A89" s="19"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" ht="14" customHeight="1" spans="1:3">
+      <c r="A90" s="15"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="14"/>
+    </row>
+    <row r="91" ht="14.25" spans="1:3">
+      <c r="A91" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" spans="1:3">
+      <c r="A92" s="13"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="22" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A94" s="13"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="22" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" spans="1:3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="22" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" spans="1:3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="22" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" spans="1:3">
+      <c r="A97" s="13"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="22" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" spans="1:3">
+      <c r="A98" s="13"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="22" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" spans="1:3">
+      <c r="A99" s="13"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="23" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" spans="1:3">
+      <c r="A100" s="13"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" spans="1:3">
+      <c r="A101" s="13"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="22" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" spans="1:3">
+      <c r="A102" s="13"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="22" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="103" ht="18" spans="1:3">
+      <c r="A103" s="13"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="22"/>
+    </row>
+    <row r="104" ht="18.75" spans="1:3">
+      <c r="A104" s="13"/>
+      <c r="B104" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" spans="1:3">
+      <c r="A105" s="13"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="23" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" ht="9" customHeight="1" spans="1:3">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+    </row>
+    <row r="107" ht="24.75" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" ht="15.75" spans="1:3">
+      <c r="A108" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109" ht="15" spans="1:3">
+      <c r="A109" s="24"/>
+      <c r="B109" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="110" ht="15" spans="1:3">
+      <c r="A110" s="24"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="111" ht="15" spans="1:3">
+      <c r="A111" s="24"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="112" ht="15" spans="1:3">
+      <c r="A112" s="24"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="113" ht="15" spans="1:3">
+      <c r="A113" s="24"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="25" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="114" ht="15" spans="1:3">
+      <c r="A114" s="24"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="115" ht="15" spans="1:3">
+      <c r="A115" s="24"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" ht="15" spans="1:3">
+      <c r="A116" s="24"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="27"/>
+    </row>
+    <row r="117" ht="15" spans="1:3">
+      <c r="A117" s="24"/>
+      <c r="B117" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="118" ht="15" spans="1:3">
+      <c r="A118" s="24"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="119" ht="15" spans="1:3">
+      <c r="A119" s="24"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="120" ht="15" spans="1:3">
+      <c r="A120" s="24"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="121" ht="15" spans="1:3">
+      <c r="A121" s="24"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="27"/>
+    </row>
+    <row r="122" ht="15" spans="1:3">
+      <c r="A122" s="24"/>
+      <c r="B122" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="123" ht="15" spans="1:3">
+      <c r="A123" s="24"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="124" ht="21" customHeight="1" spans="1:3">
+      <c r="A124" s="24"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="27"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+    </row>
+    <row r="126" ht="18" customHeight="1" spans="1:3">
+      <c r="A126" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" ht="21" customHeight="1" spans="1:3">
+      <c r="A127" s="28"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="128" ht="21" customHeight="1" spans="1:3">
+      <c r="A128" s="28"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="129" ht="22" customHeight="1" spans="1:3">
+      <c r="A129" s="28"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="130" ht="23" customHeight="1" spans="1:3">
+      <c r="A130" s="28"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="131" ht="21" customHeight="1" spans="1:3">
+      <c r="A131" s="28"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="132" ht="18.75" spans="1:1">
+      <c r="A132" s="29"/>
+    </row>
+    <row r="133" ht="18" customHeight="1" spans="1:3">
+      <c r="A133" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="134" ht="17" customHeight="1" spans="1:3">
+      <c r="A134" s="28"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="135" ht="16" customHeight="1" spans="1:3">
+      <c r="A135" s="28"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="136" ht="16" customHeight="1" spans="1:3">
+      <c r="A136" s="28"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="137" ht="17" customHeight="1" spans="1:3">
+      <c r="A137" s="28"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="138" ht="16" customHeight="1" spans="1:3">
+      <c r="A138" s="28"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" ht="18.75" spans="1:1">
+      <c r="A139" s="29"/>
+    </row>
+    <row r="140" ht="15" spans="1:3">
+      <c r="A140" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="141" ht="15" spans="1:3">
+      <c r="A141" s="24"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="142" ht="15" spans="1:3">
+      <c r="A142" s="24"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="143" ht="15" spans="1:3">
+      <c r="A143" s="24"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="144" ht="15" spans="1:3">
+      <c r="A144" s="24"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="145" ht="15" spans="1:3">
+      <c r="A145" s="24"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="146" ht="15" spans="1:3">
+      <c r="A146" s="24"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="24"/>
+      <c r="B147" s="6"/>
+      <c r="C147" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="24"/>
+    </row>
+    <row r="149" ht="15" spans="1:3">
+      <c r="A149" s="24"/>
+      <c r="B149" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="150" ht="15" spans="1:3">
+      <c r="A150" s="24"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="151" ht="15" spans="1:3">
+      <c r="A151" s="24"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="152" ht="15" spans="1:3">
+      <c r="A152" s="24"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="153" ht="15" spans="1:3">
+      <c r="A153" s="24"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="154" ht="15" spans="1:3">
+      <c r="A154" s="24"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="155" ht="15" spans="1:3">
+      <c r="A155" s="24"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="24"/>
+      <c r="B156" s="6"/>
+      <c r="C156" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="157" customFormat="1" ht="9" customHeight="1" spans="1:3">
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+    </row>
+    <row r="161" ht="56.25" spans="1:2">
+      <c r="A161" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="B161" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" ht="56.25" spans="1:2">
+      <c r="A162" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="B162" s="32">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A3:A19"/>
+    <mergeCell ref="A21:A52"/>
+    <mergeCell ref="A55:A76"/>
+    <mergeCell ref="A78:A89"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A108:A124"/>
+    <mergeCell ref="A126:A131"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="A140:A156"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B21:B35"/>
+    <mergeCell ref="B37:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B62:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B91:B102"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="B140:B147"/>
+    <mergeCell ref="B149:B156"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>